--- a/outputs-r202/test-c__Methanobacteria.xlsx
+++ b/outputs-r202/test-c__Methanobacteria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="22">
   <si>
     <t>Row</t>
   </si>
@@ -100,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -110,14 +110,54 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,220 +176,220 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>285716.37492780597</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-50347.130308536754</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>296501.35840191541</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>24940.444782851904</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>294066.39692613785</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>308236.81110559159</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>-74547.322424563346</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>166118.23430032656</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>282873.40981155506</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>319705.58578585571</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>229580.96301123279</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>329823.46698166232</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>279222.83020849217</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>136400.74829315906</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>303175.01493531937</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>31656.899797970749</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>310390.59049913165</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>94639.060718508088</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>220744.92762393283</v>
       </c>
       <c r="C20">
         <v>1</v>

--- a/outputs-r202/test-c__Methanobacteria.xlsx
+++ b/outputs-r202/test-c__Methanobacteria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Row</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>RUG787.fasta</t>
-  </si>
-  <si>
-    <t>RUG823.fasta</t>
   </si>
   <si>
     <t>1-o__Methanobacteriales</t>
@@ -100,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,54 +107,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,7 +124,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
@@ -176,18 +133,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -198,7 +155,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -209,7 +166,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -220,7 +177,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -231,7 +188,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -242,7 +199,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -253,7 +210,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -264,7 +221,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -275,7 +232,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -286,7 +243,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -297,7 +254,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -308,7 +265,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -319,7 +276,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -330,7 +287,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -341,7 +298,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -352,7 +309,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -363,7 +320,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -374,24 +331,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>94639.060718508088</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>220744.92762393283</v>
-      </c>
-      <c r="C20">
         <v>1</v>
       </c>
     </row>
